--- a/small_scale0708.xlsx
+++ b/small_scale0708.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taro.ubukawa\Documents\GitHub\13small-produce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A88B9DC-583A-4874-B2C1-270DD5FF2AE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF119BBA-4594-4B52-88FA-BFA61D0857B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6138A54B-BB09-4495-8859-B652352F27C8}"/>
+    <workbookView xWindow="-132" yWindow="36" windowWidth="17676" windowHeight="8964" xr2:uid="{6138A54B-BB09-4495-8859-B652352F27C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
   <si>
     <t>number</t>
   </si>
@@ -207,9 +207,6 @@
     <t>LAB_Water_L</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>LAB_Country(L03)</t>
   </si>
   <si>
@@ -265,13 +262,22 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>un_globalp</t>
+  </si>
+  <si>
+    <t>un_popp</t>
+  </si>
+  <si>
+    <t>un_phyp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,16 +301,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -401,22 +414,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FE54A3-4A15-4009-A0C1-54AF55C0FF1E}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +763,7 @@
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -768,10 +787,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>11</v>
@@ -927,10 +946,10 @@
       <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>0</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -991,10 +1010,10 @@
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>0</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>5</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -1064,21 +1083,21 @@
       <c r="I10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>57</v>
+      <c r="J10" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1094,23 +1113,23 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1126,23 +1145,23 @@
         <v>2</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1158,23 +1177,23 @@
         <v>3</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1186,27 +1205,27 @@
       <c r="G14" s="8">
         <v>4</v>
       </c>
-      <c r="H14" s="8">
-        <v>4</v>
+      <c r="H14" s="17">
+        <v>5</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1222,23 +1241,23 @@
         <v>3</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1250,27 +1269,27 @@
       <c r="G16" s="8">
         <v>4</v>
       </c>
-      <c r="H16" s="8">
-        <v>4</v>
+      <c r="H16" s="17">
+        <v>5</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1296,13 +1315,13 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1311,8 +1330,8 @@
       <c r="F18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
+      <c r="G18" s="17">
+        <v>3</v>
       </c>
       <c r="H18" s="8">
         <v>4</v>
@@ -1343,8 +1362,8 @@
       <c r="F19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="6">
-        <v>5</v>
+      <c r="G19" s="15">
+        <v>4</v>
       </c>
       <c r="H19" s="6">
         <v>5</v>
@@ -1352,8 +1371,8 @@
       <c r="I19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>30</v>
+      <c r="J19" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1382,21 +1401,21 @@
         <v>5</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="10" t="s">
-        <v>30</v>
+      <c r="J20" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -1412,10 +1431,10 @@
         <v>5</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1423,10 +1442,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>25</v>
@@ -1452,17 +1471,17 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>10</v>
@@ -1474,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
